--- a/Thesis-codes/Exp-10/results-archive/reulst-1/fc1_all_dataset.xlsx
+++ b/Thesis-codes/Exp-10/results-archive/reulst-1/fc1_all_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\Exp-10\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\Exp-10\results-archive\reulst-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6186AC1-40BD-4A5E-9C08-6483F9EB4849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C9B317-B964-49D1-AB6C-16F1DD9AFD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28654" yWindow="2906" windowWidth="27308" windowHeight="14331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1457" yWindow="3086" windowWidth="24686" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1_all_dataset" sheetId="1" r:id="rId1"/>
@@ -963,7 +963,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1127,138 +1127,138 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>4.5586000000000002</v>
+        <v>4.7324000000000002</v>
       </c>
       <c r="C3" s="2">
-        <v>0.93630000000000002</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="D3" s="2">
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>1.5972</v>
+        <v>3.0131000000000001</v>
       </c>
       <c r="F3" s="2">
-        <v>0.60980000000000001</v>
+        <v>0.62329999999999997</v>
       </c>
       <c r="G3" s="2">
-        <v>1.5625000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="H3" s="2">
-        <v>7.0599999999999996E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>4.6360999999999999</v>
+        <v>4.8067000000000002</v>
       </c>
       <c r="J3" s="2">
-        <v>4.4653999999999998</v>
+        <v>4.6807999999999996</v>
       </c>
       <c r="K3" s="2">
-        <v>1.9E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="L3" s="2">
-        <v>0.93889999999999996</v>
+        <v>0.93289999999999995</v>
       </c>
       <c r="M3" s="2">
-        <v>0.93420000000000003</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="N3" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O3" s="2">
-        <v>1.43E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="P3" s="1">
-        <v>1.32E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.8700000000000006E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="R3" s="1">
-        <v>1.7084999999999999</v>
+        <v>3.0398000000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>1.5389999999999999</v>
+        <v>2.9948000000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>2.87E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="U3" s="1">
-        <v>0.63080000000000003</v>
+        <v>0.64139999999999997</v>
       </c>
       <c r="V3" s="1">
-        <v>0.56920000000000004</v>
+        <v>0.6069</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>4.7324000000000002</v>
+        <v>4.5586000000000002</v>
       </c>
       <c r="C4" s="2">
-        <v>0.93140000000000001</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="D4" s="2">
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>3.0131000000000001</v>
+        <v>1.5972</v>
       </c>
       <c r="F4" s="2">
-        <v>0.62329999999999997</v>
+        <v>0.60980000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>2.5000000000000001E-5</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="H4" s="2">
-        <v>5.3800000000000001E-2</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>4.8067000000000002</v>
+        <v>4.6360999999999999</v>
       </c>
       <c r="J4" s="2">
-        <v>4.6807999999999996</v>
+        <v>4.4653999999999998</v>
       </c>
       <c r="K4" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="L4" s="2">
-        <v>0.93289999999999995</v>
+        <v>0.93889999999999996</v>
       </c>
       <c r="M4" s="2">
-        <v>0.92920000000000003</v>
+        <v>0.93420000000000003</v>
       </c>
       <c r="N4" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O4" s="2">
-        <v>1.4200000000000001E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="P4" s="1">
-        <v>1.3299999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.9300000000000001E-2</v>
+        <v>7.8700000000000006E-2</v>
       </c>
       <c r="R4" s="1">
-        <v>3.0398000000000001</v>
+        <v>1.7084999999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>2.9948000000000001</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>1.41E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="U4" s="1">
-        <v>0.64139999999999997</v>
+        <v>0.63080000000000003</v>
       </c>
       <c r="V4" s="1">
-        <v>0.6069</v>
+        <v>0.56920000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
